--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y110"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,11 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -1130,10 +1134,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1215,7 +1223,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1291,7 +1299,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1363,14 +1371,10 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1438,7 +1442,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Yvette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1528,12 +1532,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Yvette</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1603,7 +1607,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1679,7 +1683,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1763,7 +1767,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1848,7 +1852,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1927,13 +1931,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -2011,12 +2014,13 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -2094,7 +2098,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2181,7 +2185,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2264,7 +2268,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2339,7 +2343,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2402,13 +2406,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2470,12 +2473,13 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2512,7 +2516,11 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2537,7 +2545,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2596,7 +2604,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2636,9 +2644,21 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -2719,11 +2739,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2768,7 +2784,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2815,7 +2831,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2858,7 +2874,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2909,7 +2925,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2971,7 +2987,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3009,21 +3029,9 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -3060,9 +3068,21 @@
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -3166,11 +3186,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
@@ -3220,7 +3236,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3271,7 +3287,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1360 PLEASANT PRAIRIE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3327,7 +3343,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>12500 AURORA DR,  SUITE 1000</t>
+          <t>AURORA OUTPATIENT RX #1360 PLEASANT PRAIRIE</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3378,7 +3394,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cBS6XeGsHAkpmwWFA</t>
+          <t>12500 AURORA DR,  SUITE 1000</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3423,7 +3439,11 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/cBS6XeGsHAkpmwWFA</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
@@ -3478,21 +3498,9 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
@@ -3560,9 +3568,21 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
@@ -3692,11 +3712,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
@@ -3761,7 +3777,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3828,7 +3844,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3883,7 +3899,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3934,7 +3950,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -4006,7 +4022,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -4073,7 +4089,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4133,7 +4149,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4192,7 +4208,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>AURORA VISION #1154, WEST BEND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4251,7 +4267,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>AURORA VISION #1154, WEST BEND</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4311,7 +4327,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4368,7 +4384,11 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4418,22 +4438,9 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
@@ -4496,15 +4503,20 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
@@ -4567,12 +4579,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -4624,8 +4636,16 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
@@ -4750,7 +4770,11 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2:30 PM START</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
@@ -4777,7 +4801,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PAID TRAINING/MEETING, 
+BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4804,7 +4833,11 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4833,7 +4866,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2:30 PM START</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4864,7 +4897,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4895,8 +4928,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>PAID TRAINING/MEETING, 
-BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
+          <t>https://meet.google.com/hnc-ibhc-qoh</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4925,11 +4957,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Google Meet Link</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4955,10 +4983,14 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://meet.google.com/hnc-ibhc-qoh</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4986,10 +5018,14 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -5017,10 +5053,14 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -5048,10 +5088,14 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5079,8 +5123,16 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Jake S</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
@@ -5108,12 +5160,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5143,12 +5195,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5178,12 +5230,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5213,12 +5265,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5248,12 +5300,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5283,12 +5335,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5318,12 +5370,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5353,12 +5405,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5388,12 +5440,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5423,12 +5475,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5458,12 +5510,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5493,12 +5545,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5528,12 +5580,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5563,12 +5615,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5598,12 +5650,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5633,12 +5685,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>21)</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5666,16 +5718,8 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -5701,16 +5745,8 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -5736,14 +5772,10 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -5771,14 +5803,10 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -5797,130 +5825,6 @@
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4801,12 +4801,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>PAID TRAINING/MEETING, 
-BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4835,7 +4830,8 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>PAID TRAINING/MEETING, 
+BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4866,7 +4862,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>GOOGLE MEET LINK</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4897,7 +4893,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>https://meet.google.com/hnc-ibhc-qoh</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4928,7 +4924,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://meet.google.com/hnc-ibhc-qoh</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4957,7 +4953,11 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4983,14 +4983,10 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -5018,16 +5014,8 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -5055,12 +5043,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -5090,12 +5078,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5125,12 +5113,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5160,12 +5148,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5195,12 +5183,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5230,12 +5218,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5265,12 +5253,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5300,12 +5288,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5335,12 +5323,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5370,12 +5358,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5405,12 +5393,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5440,12 +5428,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5475,12 +5463,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5510,12 +5498,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5545,12 +5533,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5580,12 +5568,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5615,12 +5603,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5650,12 +5638,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>20)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5685,12 +5673,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>21)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5718,8 +5706,16 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Via</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -5745,8 +5741,16 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -5773,11 +5777,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -5806,7 +5806,7 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -5825,6 +5825,37 @@
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4097,7 +4097,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MAIN ST STATION, JEFFERSON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1411 S. MAIN STREET</t>
+          <t>MAIN ST STATION, JEFFERSON</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4275,7 +4275,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
+          <t>1411 S. MAIN STREET</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4335,7 +4335,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4801,7 +4801,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PAID TRAINING/MEETING, 
+BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4830,8 +4835,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>PAID TRAINING/MEETING, 
-BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4862,7 +4866,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>GOOGLE MEET LINK</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4893,7 +4897,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://meet.google.com/hnc-ibhc-qoh</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4924,7 +4928,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>https://meet.google.com/hnc-ibhc-qoh</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4953,11 +4957,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4983,10 +4983,14 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -5014,8 +5018,16 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -5043,12 +5055,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -5078,12 +5090,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5113,12 +5125,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5148,12 +5160,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5183,12 +5195,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5218,12 +5230,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5253,12 +5265,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5288,12 +5300,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5323,12 +5335,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5358,12 +5370,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5393,12 +5405,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5428,12 +5440,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5463,12 +5475,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5498,12 +5510,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5533,12 +5545,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5568,12 +5580,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5603,12 +5615,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5638,12 +5650,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5673,12 +5685,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>21)</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Wyatt</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5706,16 +5718,8 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Via</t>
-        </is>
-      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -5741,16 +5745,8 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Wyatt</t>
-        </is>
-      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -5777,7 +5773,11 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -5806,7 +5806,7 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K106" t="inlineStr"/>
@@ -5825,37 +5825,6 @@
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Y108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4097,7 +4097,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MAIN ST STATION, JEFFERSON</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MAIN ST STATION, JEFFERSON</t>
+          <t>1411 S. MAIN STREET</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4275,7 +4275,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1411 S. MAIN STREET</t>
+          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4335,7 +4335,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4801,12 +4801,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>PAID TRAINING/MEETING, 
-BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4835,7 +4830,8 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>PAID TRAINING/MEETING, 
+BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4866,7 +4862,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>GOOGLE MEET LINK</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4897,7 +4893,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>https://meet.google.com/hnc-ibhc-qoh</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4928,7 +4924,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://meet.google.com/hnc-ibhc-qoh</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4957,7 +4953,11 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Please have your camera on for this meeting</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
@@ -4983,14 +4983,10 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -5018,16 +5014,8 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Elijah</t>
-        </is>
-      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -5053,14 +5041,10 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -5088,14 +5072,10 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5123,14 +5103,10 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5158,14 +5134,10 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5193,14 +5165,10 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5228,14 +5196,10 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5263,14 +5227,10 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5298,14 +5258,10 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5333,14 +5289,10 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5368,14 +5320,10 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5403,14 +5351,10 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5438,14 +5382,10 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5473,14 +5413,10 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5508,14 +5444,10 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5543,14 +5475,10 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5578,14 +5506,10 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5613,14 +5537,10 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5648,14 +5568,10 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5683,14 +5599,10 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5719,7 +5631,11 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Via</t>
+        </is>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr"/>
@@ -5746,7 +5662,11 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -5773,11 +5693,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -5804,11 +5720,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -5825,6 +5737,68 @@
       <c r="X106" t="inlineStr"/>
       <c r="Y106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y108"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4097,7 +4097,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MAIN ST STATION, JEFFERSON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1411 S. MAIN STREET</t>
+          <t>MAIN ST STATION, JEFFERSON</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4275,7 +4275,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
+          <t>1411 S. MAIN STREET</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4335,7 +4335,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -5720,7 +5720,11 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -5749,7 +5753,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K107" t="inlineStr"/>
@@ -5768,37 +5772,6 @@
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -4097,7 +4097,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4157,7 +4157,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>MAIN ST STATION, JEFFERSON</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4216,7 +4216,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MAIN ST STATION, JEFFERSON</t>
+          <t>1411 S. MAIN STREET</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4275,7 +4275,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1411 S. MAIN STREET</t>
+          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4335,7 +4335,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,24 +540,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 6-8</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 11</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,28 +611,56 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Reminder about the Paid workshop today at 2:30 PM!</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 3</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bags 6-8</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 4, SB11</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -606,24 +674,48 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -632,11 +724,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -668,43 +756,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Reminder about the Paid workshop today at 2:30 PM!</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -714,10 +786,14 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -725,7 +801,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -733,7 +809,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -741,7 +817,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -749,7 +825,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>COURTESY MEET</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -764,7 +840,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -772,7 +848,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>METRO #893 +RX, SHOREWOOD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -780,7 +856,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -788,7 +864,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>METRO #384 +RX, MUKWONAGO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -796,7 +872,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -811,7 +887,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WEBSTER'S MARKETPLACE, RIPON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -819,7 +895,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4075 N OAKLAND AVE</t>
+          <t>METRO #893 +RX, SHOREWOOD</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -827,7 +903,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>PICK #432 +RX, SHEBOYGAN-25TH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -835,7 +911,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1010 ROCHESTER STREET</t>
+          <t>METRO #384 +RX, MUKWONAGO</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -843,7 +919,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -858,7 +934,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1188 W FOND DU LAC STREET</t>
+          <t>WEBSTER'S MARKETPLACE, RIPON</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -866,7 +942,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/boWQLVTF2mS2</t>
+          <t>4075 N OAKLAND AVE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -874,7 +950,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1317 N 25TH STREET</t>
+          <t>PICK #432 +RX, SHEBOYGAN-25TH ST</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -882,7 +958,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/t3wTJ4RYJq82</t>
+          <t>1010 ROCHESTER STREET</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -890,7 +966,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>PICK #886 +RX, GRAFTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -905,7 +981,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/EWZS96J1G93UVQgi7</t>
+          <t>1188 W FOND DU LAC STREET</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -913,7 +989,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5:30 am meet for Grafton Crew at Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/boWQLVTF2mS2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -921,7 +997,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/N2BkPTrrSc32</t>
+          <t>1317 N 25TH STREET</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -929,7 +1005,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/t3wTJ4RYJq82</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -937,7 +1013,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>301 FALLS ROAD</t>
+          <t>PICK #886 +RX, GRAFTON</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -952,19 +1028,23 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4:30 am meet for Grafton Crew at Grafton Park n Ride</t>
+          <t>https://goo.gl/maps/EWZS96J1G93UVQgi7</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>5:30 am meet for Grafton Crew at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/N2BkPTrrSc32</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -972,7 +1052,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5:00 am meet for Grafton Crew at Grafton Park n Ride</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -980,7 +1060,7 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fn4iD1j5W632</t>
+          <t>301 FALLS ROAD</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
@@ -993,37 +1073,37 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4:30 am meet for Grafton Crew at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Grafton Crew at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1 OR 2</t>
+          <t>https://goo.gl/maps/fn4iD1j5W632</t>
         </is>
       </c>
       <c r="W15" t="inlineStr"/>
@@ -1035,72 +1115,40 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>(Driver)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1 OR 2</t>
+        </is>
+      </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
@@ -1112,85 +1160,71 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>@ Store
-(Driver)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>(Driver)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Driver,
-Gold Camry</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>(Driver)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1201,75 +1235,83 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store
+(Driver)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>(Driver)</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1282,66 +1324,75 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>@ Store,
-After Aurora</t>
+Rx</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1354,65 +1405,66 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1425,79 +1477,65 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Cristi</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1510,29 +1548,24 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Yvette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1543,43 +1576,53 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr"/>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
     </row>
@@ -1590,69 +1633,73 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Yvette</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1666,24 +1713,24 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1694,52 +1741,44 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1750,24 +1789,24 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1778,12 +1817,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1794,30 +1833,34 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Driver, Sante Fe,
-Supv Rx</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
@@ -1830,29 +1873,24 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>@ Store
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1863,12 +1901,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1879,27 +1917,32 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Driver, Sante Fe,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1910,28 +1953,29 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store
+(w/ Carlie)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1942,12 +1986,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1958,31 +2002,27 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -1993,12 +2033,12 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2009,29 +2049,28 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2042,24 +2081,24 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2077,12 +2116,12 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2093,28 +2132,29 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2125,28 +2165,24 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2164,12 +2200,12 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2180,12 +2216,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2196,12 +2232,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2212,24 +2248,28 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -2247,12 +2287,12 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2263,12 +2303,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2279,12 +2319,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2295,28 +2335,24 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -2332,18 +2368,30 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2354,12 +2402,12 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2370,12 +2418,12 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2384,9 +2432,21 @@
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2401,12 +2461,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2417,12 +2477,12 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2433,12 +2493,12 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2459,38 +2519,33 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2501,12 +2556,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2516,11 +2571,7 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2533,35 +2584,36 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>21)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>20)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2570,14 +2622,26 @@
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>COURTESY MEET</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2592,19 +2656,19 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>22)</t>
+          <t>21)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2613,9 +2677,21 @@
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2624,7 +2700,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2639,19 +2715,19 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION, KEWASKUM</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>23)</t>
+          <t>22)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2665,17 +2741,13 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2690,27 +2762,35 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>890 FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION, KEWASKUM</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2718,7 +2798,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2733,7 +2813,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CJnRNDyortw</t>
+          <t>890 FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2745,7 +2825,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2753,7 +2833,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1810, MUSKEGO</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2761,7 +2841,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>975 PORT WASHINGTON ROAD</t>
+          <t>AURORA OUTPATIENT RX #1297, GRAFTON</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2776,23 +2856,19 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/CJnRNDyortw</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2800,7 +2876,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>S68 W15500 JANESVILLE ROAD SUITE 10</t>
+          <t>AURORA OUTPATIENT RX #1810, MUSKEGO</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2808,7 +2884,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
+          <t>975 PORT WASHINGTON ROAD</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2823,7 +2899,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2831,7 +2907,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2839,7 +2915,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>PICK #408, TWO RIVERS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2847,13 +2923,17 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/atafi8cMNWDkKvDr8</t>
+          <t>S68 W15500 JANESVILLE ROAD SUITE 10</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/purV8U9cmmZG1H3R9</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2866,7 +2946,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2874,7 +2954,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2882,30 +2962,22 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1010 22ND STREET</t>
+          <t>PICK #408, TWO RIVERS</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/atafi8cMNWDkKvDr8</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
     </row>
@@ -2917,7 +2989,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>259 N FOND DU LAC AVE</t>
+          <t>KOHN'S FILLING STATION 259, CAMPBELLSPORT</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2925,7 +2997,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>N6485 COUNTY RD F</t>
+          <t>CONCORD GENERAL STORE, OCONOMOWOC</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2933,41 +3005,28 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
+          <t>1010 22ND STREET</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>Driver,
-Gold Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2981,7 +3040,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+          <t>259 N FOND DU LAC AVE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2989,7 +3048,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+          <t>N6485 COUNTY RD F</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2997,26 +3056,43 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>4:45 am meet for Grafton Crew at Grafton Park n Ride</t>
+          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3026,23 +3102,43 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/WCsZpx5SMsA2</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X4xEoL3zCRA2</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Grafton Crew at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -3052,61 +3148,20 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
@@ -3122,56 +3177,63 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
           <t>@ Store,
-(Driver)</t>
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3181,9 +3243,22 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -3191,25 +3266,25 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>@ Store,
-(w/ Carlie)</t>
+(Driver)</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -3217,7 +3292,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3234,29 +3309,30 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store,
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>PICK #182, FITCHBURG</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3264,7 +3340,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3277,42 +3353,33 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>7:00 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>3010 CAHILL MAIN</t>
+          <t>PICK #182, FITCHBURG</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3320,7 +3387,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>PICK #888 +RX, WATERTOWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3335,7 +3402,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>7:30 AM START</t>
+          <t>7:00 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3343,27 +3410,32 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1360 PLEASANT PRAIRIE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/W8eb1CgQgVw</t>
+          <t>3010 CAHILL MAIN</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3371,7 +3443,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>624 SOUTH CHURCH STREET</t>
+          <t>PICK #888 +RX, WATERTOWN</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3386,7 +3458,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:30 AM START</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3394,31 +3466,35 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>12500 AURORA DR,  SUITE 1000</t>
+          <t>AURORA OUTPATIENT RX #1360 PLEASANT PRAIRIE</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/W8eb1CgQgVw</t>
+        </is>
+      </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/tzx1UGc1dZ82</t>
+          <t>624 SOUTH CHURCH STREET</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3433,7 +3509,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1053, SLINGER</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3441,46 +3517,33 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cBS6XeGsHAkpmwWFA</t>
+          <t>12500 AURORA DR,  SUITE 1000</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>@ Store,
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/tzx1UGc1dZ82</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3493,23 +3556,27 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1061 EAST COMMERCE BOULEVARD SUITE</t>
+          <t>AURORA OUTPATIENT RX #1053, SLINGER</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/cBS6XeGsHAkpmwWFA</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Yvette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3521,37 +3588,23 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Sante Fe,
-Training Follow-up</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
     </row>
@@ -3563,70 +3616,65 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7iYLLr5ukoS2</t>
+          <t>1061 EAST COMMERCE BOULEVARD SUITE</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Yvette</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+(w/ Carlie)</t>
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe,
+Training Follow-up</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
     </row>
@@ -3638,23 +3686,35 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>APPROX 9:30/10:30 AM START</t>
+          <t>https://goo.gl/maps/7iYLLr5ukoS2</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3665,12 +3725,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3681,20 +3741,15 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3706,7 +3761,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 9:30/10:30 AM START</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3717,12 +3772,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3733,12 +3788,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3749,15 +3804,20 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3769,27 +3829,23 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3800,12 +3856,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3816,12 +3872,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3836,7 +3892,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>141 MAIN ST</t>
+          <t>GAUGERT'S BUSS STOP, SULLIVAN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3844,23 +3900,35 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3871,12 +3939,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3891,7 +3959,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+          <t>141 MAIN ST</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3899,7 +3967,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3910,12 +3978,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3926,12 +3994,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3944,33 +4012,33 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TEUfEX2J1AE2</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Jeri</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3981,19 +4049,15 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
@@ -4002,27 +4066,14 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>AURORA OUTPATIENT RX #1055 WEST BEND</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -4030,19 +4081,19 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jeri</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4053,12 +4104,12 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -4076,20 +4127,25 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4097,19 +4153,19 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4120,18 +4176,17 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X63" t="inlineStr"/>
@@ -4142,14 +4197,22 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>https://goo.gl/maps/sSXpDDtLr7Rq4FET8</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4157,19 +4220,19 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MAIN ST STATION, JEFFERSON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4180,17 +4243,18 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -4208,7 +4272,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4216,19 +4280,19 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>1411 S. MAIN STREET</t>
+          <t>MAIN ST STATION, JEFFERSON</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4239,12 +4303,12 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -4267,7 +4331,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>AURORA VISION #1154, WEST BEND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4275,19 +4339,19 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
+          <t>1411 S. MAIN STREET</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4298,18 +4362,17 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -4327,7 +4390,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>205 VALLEY AVE</t>
+          <t>AURORA VISION #1154, WEST BEND</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4335,19 +4398,19 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4358,17 +4421,18 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X67" t="inlineStr"/>
@@ -4386,23 +4450,27 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
+          <t>205 VALLEY AVE</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>SALE INVENTORY</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4413,12 +4481,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
@@ -4439,33 +4507,25 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/wwYDRH7Nej82</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4476,12 +4536,12 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
@@ -4501,47 +4561,34 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima, Equip</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4552,12 +4599,12 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
@@ -4579,28 +4626,45 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4611,12 +4675,12 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
@@ -4638,12 +4702,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4652,18 +4716,30 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>19)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
@@ -4683,16 +4759,20 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
@@ -4701,12 +4781,12 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>20)</t>
+          <t>19)</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4733,7 +4813,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4744,12 +4824,12 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>21)</t>
+          <t>20)</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4770,24 +4850,36 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>2:30 PM START</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4801,7 +4893,11 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2:30 PM START</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -4828,12 +4924,7 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>PAID TRAINING/MEETING, 
-BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4862,7 +4953,8 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>GOOGLE MEET LINK</t>
+          <t>PAID TRAINING/MEETING, 
+BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4893,7 +4985,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://meet.google.com/hnc-ibhc-qoh</t>
+          <t>GOOGLE MEET LINK</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4924,7 +5016,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>https://meet.google.com/hnc-ibhc-qoh</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4955,7 +5047,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Please have your camera on for this meeting</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4986,7 +5078,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -5015,7 +5107,11 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Please click on the link below to join this meeting</t>
+        </is>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr"/>
@@ -5042,11 +5138,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5075,7 +5167,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5106,7 +5198,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5137,7 +5229,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5168,7 +5260,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5199,7 +5291,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5230,7 +5322,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5261,7 +5353,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5292,7 +5384,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5323,7 +5415,7 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5354,7 +5446,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5385,7 +5477,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5416,7 +5508,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5447,7 +5539,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5478,7 +5570,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5509,7 +5601,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5540,7 +5632,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5571,7 +5663,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5602,7 +5694,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5633,7 +5725,7 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -5664,7 +5756,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -5693,7 +5785,11 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr"/>
@@ -5720,11 +5816,7 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -5751,11 +5843,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -5772,6 +5860,68 @@
       <c r="X107" t="inlineStr"/>
       <c r="Y107" t="inlineStr"/>
     </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -760,11 +760,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Reminder about the Paid workshop today at 2:30 PM!</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y109"/>
+  <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -760,7 +760,11 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Reminder about the Paid workshop today at 2:30 PM!</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1818,7 +1822,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1902,7 +1906,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1987,7 +1991,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2066,7 +2070,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2150,7 +2154,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2233,7 +2237,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2320,7 +2324,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2403,7 +2407,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2478,7 +2482,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2541,7 +2545,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2609,7 +2613,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2680,7 +2684,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -2732,9 +2736,21 @@
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
@@ -2819,11 +2835,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2864,7 +2876,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2911,7 +2923,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2958,7 +2970,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>PICK #408, TWO RIVERS</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -3001,7 +3013,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1010 22ND STREET</t>
+          <t>PICK #408, TWO RIVERS</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3052,7 +3064,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
+          <t>1010 22ND STREET</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -3116,7 +3128,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>4:45 am meet for Grafton Crew at Grafton Park n Ride</t>
+          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3153,7 +3165,11 @@
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>4:45 am meet for Grafton Crew at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -3203,22 +3219,9 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
@@ -3262,18 +3265,18 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>@ Store,
-(Driver)</t>
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3310,18 +3313,18 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
           <t>@ Store,
-(w/ Carlie)</t>
+(Driver)</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3362,15 +3365,20 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store,
+(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
@@ -3413,20 +3421,15 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
@@ -3469,15 +3472,20 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3520,12 +3528,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3567,20 +3575,15 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>@ Store,
-(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
@@ -3623,12 +3626,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Yvette</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3705,17 +3708,18 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Yvette</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+(w/ Carlie)</t>
         </is>
       </c>
       <c r="P56" t="inlineStr"/>
@@ -3768,12 +3772,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -3836,12 +3840,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -3903,12 +3907,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3968,9 +3972,21 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
@@ -3979,7 +3995,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -4034,7 +4050,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -4075,11 +4091,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>6:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
@@ -4089,7 +4101,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Jeri</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -4149,7 +4161,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -4161,7 +4173,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jeri</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -4216,7 +4228,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -4228,7 +4240,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4276,7 +4288,7 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MAIN ST STATION, JEFFERSON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -4288,7 +4300,7 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4335,7 +4347,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>1411 S. MAIN STREET</t>
+          <t>MAIN ST STATION, JEFFERSON</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4347,7 +4359,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -4394,7 +4406,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
+          <t>1411 S. MAIN STREET</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4406,7 +4418,7 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -4454,7 +4466,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>https://maps.app.goo.gl/cmXWoDMNmqSXtfnh7</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4466,7 +4478,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -4511,7 +4523,11 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>SALE INVENTORY</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
@@ -4521,7 +4537,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4561,21 +4577,9 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Optima, Equip</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
@@ -4584,7 +4588,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4639,17 +4643,17 @@
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima, Equip</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -4660,7 +4664,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4708,9 +4712,21 @@
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
@@ -4719,7 +4735,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4771,9 +4787,21 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
@@ -4807,11 +4835,7 @@
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
@@ -4852,7 +4876,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4897,7 +4921,11 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -5318,7 +5346,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5349,7 +5377,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5380,7 +5408,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5411,7 +5439,7 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5442,7 +5470,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5473,7 +5501,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5504,7 +5532,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5535,7 +5563,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5566,7 +5594,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5597,7 +5625,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5628,7 +5656,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="K100" t="inlineStr"/>
@@ -5659,7 +5687,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K101" t="inlineStr"/>
@@ -5690,7 +5718,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K102" t="inlineStr"/>
@@ -5721,7 +5749,7 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -5752,7 +5780,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -5783,7 +5811,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Wyatt</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K105" t="inlineStr"/>
@@ -5812,7 +5840,11 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Via</t>
+        </is>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -5839,7 +5871,11 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Wyatt</t>
+        </is>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -5866,11 +5902,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr"/>
@@ -5897,11 +5929,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -5918,6 +5946,68 @@
       <c r="X109" t="inlineStr"/>
       <c r="Y109" t="inlineStr"/>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -760,7 +760,11 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Reminder about the Paid workshop today at 2:30 PM!</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -1686,7 +1690,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>*Until 9:30</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1935,7 +1943,8 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Driver, Sante Fe,
+          <t>Driver, 
+Sante Fe,
 Supv Rx</t>
         </is>
       </c>
@@ -4944,7 +4953,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PAID TRAINING/MEETING, 
+BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
+        </is>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
@@ -4973,8 +4987,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>PAID TRAINING/MEETING, 
-BADGER EFFICIENCY VIRTUAL WORKSHOP</t>
+          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -5005,7 +5018,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>GOOGLE MEET LINK</t>
+          <t>Please have your camera on for this meeting</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -5036,7 +5049,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://meet.google.com/hnc-ibhc-qoh</t>
+          <t>Please click on the link below to join this meeting</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -5067,7 +5080,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Please plan to log in 10 mins prior to the start of this meeting</t>
+          <t>https://meet.google.com/hnc-ibhc-qoh</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -5096,11 +5109,7 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Please have your camera on for this meeting</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr"/>
@@ -5126,10 +5135,14 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Please click on the link below to join this meeting</t>
+          <t>Casey</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -5157,8 +5170,16 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Elijah</t>
+        </is>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
@@ -5184,10 +5205,14 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -5215,10 +5240,14 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Heidi</t>
         </is>
       </c>
       <c r="K86" t="inlineStr"/>
@@ -5246,10 +5275,14 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jake S</t>
         </is>
       </c>
       <c r="K87" t="inlineStr"/>
@@ -5277,10 +5310,14 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Heidi</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K88" t="inlineStr"/>
@@ -5308,10 +5345,14 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Jake S</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K89" t="inlineStr"/>
@@ -5339,10 +5380,14 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K90" t="inlineStr"/>
@@ -5370,10 +5415,14 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K91" t="inlineStr"/>
@@ -5401,10 +5450,14 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -5432,10 +5485,14 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="K93" t="inlineStr"/>
@@ -5463,10 +5520,14 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="K94" t="inlineStr"/>
@@ -5494,10 +5555,14 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K95" t="inlineStr"/>
@@ -5525,10 +5590,14 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K96" t="inlineStr"/>
@@ -5556,10 +5625,14 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Louisa</t>
         </is>
       </c>
       <c r="K97" t="inlineStr"/>
@@ -5587,10 +5660,14 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Louisa</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K98" t="inlineStr"/>
@@ -5618,10 +5695,14 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K99" t="inlineStr"/>
@@ -5649,7 +5730,11 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
-      <c r="I100" t="inlineStr"/>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
       <c r="J100" t="inlineStr">
         <is>
           <t>Nick</t>
@@ -5680,7 +5765,11 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr">
         <is>
           <t>Robyn</t>
@@ -5711,7 +5800,11 @@
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
       <c r="J102" t="inlineStr">
         <is>
           <t>Serena</t>
@@ -5742,7 +5835,11 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>21)</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr">
         <is>
           <t>Sonia</t>
@@ -5773,7 +5870,11 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>22)</t>
+        </is>
+      </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>Taya</t>
@@ -5804,7 +5905,11 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>23)</t>
+        </is>
+      </c>
       <c r="J105" t="inlineStr">
         <is>
           <t>Taylor</t>
@@ -5835,7 +5940,11 @@
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>24)</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr">
         <is>
           <t>Via</t>
@@ -5866,7 +5975,11 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>25)</t>
+        </is>
+      </c>
       <c r="J107" t="inlineStr">
         <is>
           <t>Wyatt</t>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -4542,7 +4542,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -4792,21 +4792,9 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
@@ -4815,7 +4803,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -4854,7 +4842,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -4890,21 +4878,9 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>

--- a/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
+++ b/07-28-24 to 08-03-24 Milwaukee Schedule Copy.xlsx
@@ -3152,7 +3152,11 @@
           <t>Cynthia</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
